--- a/data/trans_bre/P1423_2016_2023-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1423_2016_2023-Edad-trans_bre.xlsx
@@ -609,14 +609,14 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8991399791382743</v>
+        <v>-1.009321373102683</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.513371969494314</v>
+        <v>-3.608437940442582</v>
       </c>
       <c r="E5" s="6" t="inlineStr"/>
       <c r="F5" s="6" t="n">
-        <v>-0.9376869021695016</v>
+        <v>-0.8818798609443257</v>
       </c>
     </row>
     <row r="6">
@@ -627,14 +627,14 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.296541346118989</v>
+        <v>1.221886516545838</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.452710273164033</v>
+        <v>2.814317946772607</v>
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
-        <v>2.898381127322535</v>
+        <v>3.733525540896455</v>
       </c>
     </row>
     <row r="7">
@@ -652,7 +652,7 @@
         <v>0.5913950511761418</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.418365622800783</v>
+        <v>1.418365622800784</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>1.208300075273514</v>
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.3052452688557804</v>
+        <v>-0.3278959111996792</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.5075600013116311</v>
+        <v>-0.5099091496985025</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.592386756603832</v>
+        <v>-0.6460244853775317</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4582791039665104</v>
+        <v>-0.3609245742208357</v>
       </c>
     </row>
     <row r="9">
@@ -689,14 +689,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.773207983166996</v>
+        <v>1.696730585637983</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.325549574573969</v>
-      </c>
-      <c r="E9" s="6" t="inlineStr"/>
+        <v>3.234154245605469</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>9.644891533689583</v>
+      </c>
       <c r="F9" s="6" t="n">
-        <v>7.153578439945501</v>
+        <v>8.140746891785287</v>
       </c>
     </row>
     <row r="10">
@@ -714,13 +716,13 @@
         <v>3.001139625243663</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.7546572990078499</v>
+        <v>0.7546572990078506</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>2.782989677723409</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.1850674803855864</v>
+        <v>0.1850674803855866</v>
       </c>
     </row>
     <row r="11">
@@ -731,16 +733,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.510355283262943</v>
+        <v>1.398105222079282</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.806972597221659</v>
+        <v>-1.695996749034858</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.65606566297459</v>
+        <v>0.5851997080987262</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.3160077846724786</v>
+        <v>-0.3233350535985452</v>
       </c>
     </row>
     <row r="12">
@@ -751,16 +753,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.723258274608798</v>
+        <v>4.75921420620764</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.95716620462064</v>
+        <v>2.860638474111</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>8.950721044658813</v>
+        <v>8.644304289682772</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.047257883189959</v>
+        <v>1.063869649033141</v>
       </c>
     </row>
     <row r="13">
@@ -778,13 +780,13 @@
         <v>5.023949711983254</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1.933035837761399</v>
+        <v>1.9330358377614</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>2.084548167317776</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.2756980837712385</v>
+        <v>0.2756980837712387</v>
       </c>
     </row>
     <row r="14">
@@ -795,16 +797,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.794645997291995</v>
+        <v>2.683387382107984</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.7369132233912282</v>
+        <v>-0.8788301473917913</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.8215754994863924</v>
+        <v>0.8017695189039677</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.08889301417777469</v>
+        <v>-0.09449781539521328</v>
       </c>
     </row>
     <row r="15">
@@ -815,16 +817,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.65111131667082</v>
+        <v>7.604594721460835</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.337132023184616</v>
+        <v>4.605240782038053</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.699195191988229</v>
+        <v>4.912299388994271</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7848714286730567</v>
+        <v>0.8732803762473549</v>
       </c>
     </row>
     <row r="16">
@@ -859,16 +861,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.320629235210996</v>
+        <v>5.074368163456073</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.459947873991408</v>
+        <v>3.53595994067222</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.7303193912377073</v>
+        <v>0.6993598092247607</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.4085094089389304</v>
+        <v>0.4198212252172431</v>
       </c>
     </row>
     <row r="18">
@@ -879,16 +881,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.60237469759586</v>
+        <v>12.84655361695654</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.409870548163953</v>
+        <v>9.19447443160867</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3.796796891566773</v>
+        <v>3.90434713600938</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.77951729670023</v>
+        <v>1.676544201338048</v>
       </c>
     </row>
     <row r="19">
@@ -906,13 +908,13 @@
         <v>10.09568889677061</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>8.145189304056549</v>
+        <v>8.145189304056553</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>5.87334079944468</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>2.215866618044361</v>
+        <v>2.215866618044362</v>
       </c>
     </row>
     <row r="20">
@@ -923,16 +925,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>6.484279694648546</v>
+        <v>6.211169351038734</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>5.497929157379142</v>
+        <v>5.378231472516393</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1.823971790454028</v>
+        <v>2.092793990654762</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>1.054225985514791</v>
+        <v>1.072774134413628</v>
       </c>
     </row>
     <row r="21">
@@ -943,16 +945,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>14.16070954601722</v>
+        <v>13.73889598574378</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>10.98397267777496</v>
+        <v>11.03913599986633</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>16.74216568462267</v>
+        <v>18.21196615285357</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>4.094831851610463</v>
+        <v>4.265912956370433</v>
       </c>
     </row>
     <row r="22">
@@ -970,13 +972,13 @@
         <v>6.063118459056032</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>5.138352031700874</v>
+        <v>5.138352031700875</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>1.070344898003668</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>0.7066922251556339</v>
+        <v>0.7066922251556342</v>
       </c>
     </row>
     <row r="23">
@@ -987,16 +989,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.470499336057538</v>
+        <v>1.613091154166999</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.747910583375203</v>
+        <v>1.612175532380989</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>0.1548958099060174</v>
+        <v>0.1852406371471917</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.147182337414531</v>
+        <v>0.1540003546642937</v>
       </c>
     </row>
     <row r="24">
@@ -1007,16 +1009,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.78058430990979</v>
+        <v>10.61039240233364</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.315281016138028</v>
+        <v>8.395867675995259</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>2.692229084829465</v>
+        <v>2.731493161400846</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.532875543866831</v>
+        <v>1.512753546116454</v>
       </c>
     </row>
     <row r="25">
@@ -1034,13 +1036,13 @@
         <v>4.781093856424272</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>3.417553164564072</v>
+        <v>3.41755316456407</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>2.299789269924982</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.7114116201302876</v>
+        <v>0.7114116201302874</v>
       </c>
     </row>
     <row r="26">
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>3.788970451204182</v>
+        <v>3.787850804024305</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.297281889727754</v>
+        <v>2.390333144164512</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1.531721883898092</v>
+        <v>1.524234871106572</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.426733882264283</v>
+        <v>0.4379721818695045</v>
       </c>
     </row>
     <row r="27">
@@ -1071,16 +1073,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>5.861539509062981</v>
+        <v>5.925380679715946</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>4.400926555599149</v>
+        <v>4.496586532479223</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.359459704637386</v>
+        <v>3.385958816075177</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.038068494781388</v>
+        <v>1.0417633364927</v>
       </c>
     </row>
     <row r="28">
